--- a/Solina/Production/Input/GHI_2024-02-17.xlsx
+++ b/Solina/Production/Input/GHI_2024-02-17.xlsx
@@ -487,22 +487,22 @@
         <v>15</v>
       </c>
       <c r="G2">
-        <v>3243.18</v>
+        <v>3243.21</v>
       </c>
       <c r="H2">
-        <v>6521.43</v>
+        <v>6521.6</v>
       </c>
       <c r="I2">
-        <v>772.8200000000001</v>
+        <v>772.8099999999999</v>
       </c>
       <c r="J2">
-        <v>3243.11</v>
+        <v>3242.83</v>
       </c>
       <c r="K2">
-        <v>6201.29</v>
+        <v>6198.49</v>
       </c>
       <c r="L2">
-        <v>777.3200000000001</v>
+        <v>777.37</v>
       </c>
     </row>
   </sheetData>
@@ -872,7 +872,7 @@
         <v>9.49</v>
       </c>
       <c r="I9">
-        <v>69.23999999999999</v>
+        <v>69.28</v>
       </c>
       <c r="J9">
         <v>10.2</v>
@@ -881,7 +881,7 @@
         <v>9.49</v>
       </c>
       <c r="L9">
-        <v>26.82</v>
+        <v>26.84</v>
       </c>
       <c r="M9">
         <v>7.78</v>
@@ -910,19 +910,19 @@
         <v>8</v>
       </c>
       <c r="H10">
-        <v>119.56</v>
+        <v>119.58</v>
       </c>
       <c r="I10">
-        <v>454.8</v>
+        <v>454.9</v>
       </c>
       <c r="J10">
         <v>51.4</v>
       </c>
       <c r="K10">
-        <v>119.56</v>
+        <v>119.58</v>
       </c>
       <c r="L10">
-        <v>420.04</v>
+        <v>420.16</v>
       </c>
       <c r="M10">
         <v>47.02</v>
@@ -951,19 +951,19 @@
         <v>9</v>
       </c>
       <c r="H11">
-        <v>268.3</v>
+        <v>268.31</v>
       </c>
       <c r="I11">
-        <v>651.8</v>
+        <v>651.85</v>
       </c>
       <c r="J11">
-        <v>74.73</v>
+        <v>74.72</v>
       </c>
       <c r="K11">
-        <v>268.3</v>
+        <v>268.31</v>
       </c>
       <c r="L11">
-        <v>632.85</v>
+        <v>632.89</v>
       </c>
       <c r="M11">
         <v>72.55</v>
@@ -992,19 +992,19 @@
         <v>10</v>
       </c>
       <c r="H12">
-        <v>395.85</v>
+        <v>395.86</v>
       </c>
       <c r="I12">
-        <v>747.3</v>
+        <v>747.33</v>
       </c>
       <c r="J12">
         <v>88.39</v>
       </c>
       <c r="K12">
-        <v>395.85</v>
+        <v>395.86</v>
       </c>
       <c r="L12">
-        <v>730.48</v>
+        <v>730.5</v>
       </c>
       <c r="M12">
         <v>88.3</v>
@@ -1036,10 +1036,10 @@
         <v>482.93</v>
       </c>
       <c r="I13">
-        <v>795.5700000000001</v>
+        <v>795.59</v>
       </c>
       <c r="J13">
-        <v>96.08</v>
+        <v>96.06999999999999</v>
       </c>
       <c r="K13">
         <v>482.93</v>
@@ -1080,7 +1080,7 @@
         <v>813.0700000000001</v>
       </c>
       <c r="J14">
-        <v>99</v>
+        <v>98.98999999999999</v>
       </c>
       <c r="K14">
         <v>519.29</v>
@@ -1115,16 +1115,16 @@
         <v>13</v>
       </c>
       <c r="H15">
-        <v>500.99</v>
+        <v>500.98</v>
       </c>
       <c r="I15">
         <v>804.51</v>
       </c>
       <c r="J15">
-        <v>97.52</v>
+        <v>97.53</v>
       </c>
       <c r="K15">
-        <v>500.99</v>
+        <v>500.98</v>
       </c>
       <c r="L15">
         <v>777.35</v>
@@ -1171,7 +1171,7 @@
         <v>748.03</v>
       </c>
       <c r="M16">
-        <v>93.23999999999999</v>
+        <v>93.23</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -1200,7 +1200,7 @@
         <v>314.34</v>
       </c>
       <c r="I17">
-        <v>690.99</v>
+        <v>690.98</v>
       </c>
       <c r="J17">
         <v>80.05</v>
@@ -1241,19 +1241,19 @@
         <v>169.63</v>
       </c>
       <c r="I18">
-        <v>539.4400000000001</v>
+        <v>539.42</v>
       </c>
       <c r="J18">
         <v>60.71</v>
       </c>
       <c r="K18">
-        <v>169.61</v>
+        <v>169.49</v>
       </c>
       <c r="L18">
-        <v>516.53</v>
+        <v>515.48</v>
       </c>
       <c r="M18">
-        <v>56.48</v>
+        <v>56.54</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1282,19 +1282,19 @@
         <v>32.83</v>
       </c>
       <c r="I19">
-        <v>187.1</v>
+        <v>187.08</v>
       </c>
       <c r="J19">
         <v>23.24</v>
       </c>
       <c r="K19">
-        <v>32.81</v>
+        <v>32.6</v>
       </c>
       <c r="L19">
-        <v>122.06</v>
+        <v>120.12</v>
       </c>
       <c r="M19">
-        <v>20.08</v>
+        <v>20.05</v>
       </c>
     </row>
     <row r="20" spans="1:13">
